--- a/public/assets/reports/Reporte-Detallado-ALCLB3F49710-Huawei 521.xlsx
+++ b/public/assets/reports/Reporte-Detallado-ALCLB3F49710-Huawei 521.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\David FC\Freelance Projects\Repositorios\Patagondata\Documents\TEF Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66F440-8A6B-4C3D-A969-01778046E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D046B34-2A23-4F98-BC41-3501FA7780F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{77ACB1A2-0E4E-4704-B57A-038777C3507C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77ACB1A2-0E4E-4704-B57A-038777C3507C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Get Parameter Values</t>
   </si>
@@ -65,9 +65,6 @@
     <t>SPV multiple parameters</t>
   </si>
   <si>
-    <t>SPV all data types</t>
-  </si>
-  <si>
     <t>SPV nonexistent parameter</t>
   </si>
   <si>
@@ -110,13 +107,88 @@
     <t>error</t>
   </si>
   <si>
-    <t>Unexcpected response, it was expected to receive 9005 Invalid parameter name</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
     <t>Delete Object</t>
+  </si>
+  <si>
+    <t>parametro</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>detalles</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.testParameterNonexistent</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.ManagementServer.PeriodicInformInterval</t>
+  </si>
+  <si>
+    <t>nternetGatewayDevice.ManagementServer.PeriodicInformInterval, InternetGatewayDevice.ManagementServer.PeriodicInformEnable</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.ManagementServer.</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.ManagementServer.PeriodicInformInterval, InternetGatewayDevice.ManagementServer.PeriodicInformEnable</t>
+  </si>
+  <si>
+    <t>120, 1</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.ManagementServer.test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.ManagementServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InternetGatewayDevice.LANDevice.1.LANHostConfigManagement	</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.Time.CurrentLocalTime</t>
+  </si>
+  <si>
+    <t>2020-02-22T12:14:04-04:00</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.Layer3Forwarding.Forwarding.</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.test</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.Layer3Forwarding.Forwarding.1</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.test.1</t>
+  </si>
+  <si>
+    <t>InternetGatewayDevice.1</t>
+  </si>
+  <si>
+    <t>NBIOperationResult - STATUS_EXECUTION_TIMEOUT - Device got stuck</t>
+  </si>
+  <si>
+    <t>NBIOperationResult - STATUS_ABORTED - Device raise an unexpected behaviour</t>
   </si>
 </sst>
 </file>
@@ -185,14 +257,13 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FFFFC000"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +276,14 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,11 +306,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -258,7 +346,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,271 +690,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F1BF1E-D7E1-465E-89E4-7B45E7E3371C}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" customWidth="1"/>
-    <col min="3" max="3" width="50.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.81640625" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12">
+        <v>300</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
